--- a/TestData/apex-CMS.xlsx
+++ b/TestData/apex-CMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/eclipse-workspace/apexnCMS_V02/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C722251C-0F52-2445-8EC2-312CBCF3AC80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB83050-4ABB-6C4A-BFE8-2AB3E27C5448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="460" windowWidth="27540" windowHeight="17040" activeTab="1" xr2:uid="{4688896F-F069-C048-B380-C08EA5B87780}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="242">
   <si>
     <t>DB ID</t>
   </si>
@@ -33784,7 +33784,7 @@
   <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -33873,7 +33873,7 @@
       <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="8" t="s">
@@ -34381,6 +34381,9 @@
       <c r="B10" s="5" t="s">
         <v>219</v>
       </c>
+      <c r="C10" s="9" t="s">
+        <v>200</v>
+      </c>
       <c r="D10" s="5">
         <v>5</v>
       </c>
@@ -34447,6 +34450,7 @@
     <hyperlink ref="H8" r:id="rId7" xr:uid="{7D2E07EB-3529-B74D-A7E1-A2CDEAFB6E72}"/>
     <hyperlink ref="H9" r:id="rId8" display="https://apex-ride-qa-user-uploads.s3.eu-west-2.amazonaws.com/1590480686762-Screenshot 2020-05-26 at 08.56.44.png" xr:uid="{4DA73F3E-8DE8-8641-8784-222753FFA329}"/>
     <hyperlink ref="H10" r:id="rId9" display="https://apex-ride-qa-user-uploads.s3.eu-west-2.amazonaws.com/1590481623278-Screenshot 2020-05-26 at 08.56.44.png" xr:uid="{1B46C916-A7A7-5745-88B1-1F5E3FD41009}"/>
+    <hyperlink ref="G2" r:id="rId10" xr:uid="{5DE7227E-07B6-A543-B98E-B4A9E7BF3084}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
